--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_40.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_40.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1379"/>
+  <dimension ref="A1:N1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.218915700912476</v>
+        <v>0.001496076583862305</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04384708404541016</v>
+        <v>0.0008199214935302734</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06328010559082031</v>
+        <v>0.07818508148193359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 0), (3, 3), (5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 6), (2, 3), (2, 2), (4, 5), (1, 4), (3, 4), (2, 5), (2, 0), (0, 6), (0, 4), (3, 2), (5, 4), (4, 6), (6, 6), (6, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 1], [3, 0], [3, 3], [5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 6], [2, 3], [2, 2], [4, 5], [1, 4], [3, 4], [2, 5], [2, 0], [0, 6], [0, 4], [3, 2], [5, 4], [4, 6], [6, 6], [6, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 4), (2, 3), (2, 6), (0, 0), (1, 6), (4, 5), (2, 5), (3, 4), (0, 4), (4, 0), (0, 6), (5, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 1], [5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 4], [2, 3], [2, 6], [0, 0], [1, 6], [4, 5], [2, 5], [3, 4], [0, 4], [4, 0], [0, 6], [5, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (2, 3), (3, 5), (2, 0), (2, 2), (2, 1), (3, 4), (3, 1), (4, 6), (3, 0), (4, 5), (4, 3), (3, 2), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[4, 1], [5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [2, 3], [3, 5], [2, 0], [2, 2], [2, 1], [3, 4], [3, 1], [4, 6], [3, 0], [4, 5], [4, 3], [3, 2], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 1), (3, 6), (1, 5), (0, 5), (2, 0), (0, 3), (1, 4), (0, 4), (3, 1), (1, 6), (2, 5), (3, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 1], [3, 6], [1, 5], [0, 5], [2, 0], [0, 3], [1, 4], [0, 4], [3, 1], [1, 6], [2, 5], [3, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 1), (1, 6), (0, 6), (3, 2), (3, 0), (3, 3), (4, 3), (3, 1), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 1], [1, 6], [0, 6], [3, 2], [3, 0], [3, 3], [4, 3], [3, 1], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (4, 3), (5, 3), (5, 1), (1, 6), (0, 6), (3, 2), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [4, 3], [5, 3], [5, 1], [1, 6], [0, 6], [3, 2], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (3, 3), (4, 3), (3, 1), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[4, 1], [5, 2], [3, 3], [4, 3], [3, 1], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 0)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (0, 6), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [0, 6], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 0), (0, 6), (6, 2), (3, 2), (3, 1), (3, 3), (4, 0), (5, 0), (4, 1)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 0], [0, 6], [6, 2], [3, 2], [3, 1], [3, 3], [4, 0], [5, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>[(3, 6), (2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 5), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 0), (3, 3), (6, 2), (3, 2), (3, 1), (4, 2), (4, 0), (5, 0), (4, 1)]</t>
+          <t>[[3, 6], [2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 5], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 0], [3, 3], [6, 2], [3, 2], [3, 1], [4, 2], [4, 0], [5, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 5), (3, 6), (3, 5), (3, 2), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 0), (3, 3), (6, 2), (3, 1), (4, 0), (4, 2), (4, 1), (5, 0), (5, 1)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 5], [3, 6], [3, 5], [3, 2], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 0], [3, 3], [6, 2], [3, 1], [4, 0], [4, 2], [4, 1], [5, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -12427,7 +12427,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (3, 4), (4, 5), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (4, 3), (6, 5), (6, 6), (4, 0), (3, 3), (6, 2), (4, 1), (4, 2), (4, 4), (5, 0), (5, 1), (5, 2)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [3, 4], [4, 5], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [4, 3], [6, 5], [6, 6], [4, 0], [3, 3], [6, 2], [4, 1], [4, 2], [4, 4], [5, 0], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (3, 4), (4, 5), (4, 1), (3, 3), (4, 2), (2, 6), (4, 3), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (6, 2), (5, 0), (4, 4), (4, 6), (5, 1), (5, 2), (5, 3)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [3, 4], [4, 5], [4, 1], [3, 3], [4, 2], [2, 6], [4, 3], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [6, 2], [5, 0], [4, 4], [4, 6], [5, 1], [5, 2], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -13754,7 +13754,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (3, 4), (4, 5), (4, 1), (4, 2), (4, 3), (4, 6), (4, 4), (5, 4), (5, 5), (5, 2), (5, 0), (5, 1), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [3, 4], [4, 5], [4, 1], [4, 2], [4, 3], [4, 6], [4, 4], [5, 4], [5, 5], [5, 2], [5, 0], [5, 1], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -14053,110 +14053,120 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1375" t="n">
-        <v>226</v>
+        <v>0.9856444864376221</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1376" t="n">
-        <v>1122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1377" t="n">
-        <v>17</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1378" t="n">
-        <v>7.472177267074585</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>0.25954270362854</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1379" t="inlineStr">
+      <c r="B1380" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1379" t="inlineStr">
+      <c r="C1380" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1379" t="inlineStr">
+      <c r="D1380" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1379" t="inlineStr">
+      <c r="E1380" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1379" t="inlineStr">
+      <c r="F1380" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1379" t="inlineStr">
+      <c r="G1380" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
+      <c r="H1380" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1379" t="inlineStr">
+      <c r="I1380" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1379" t="inlineStr">
+      <c r="J1380" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1379" t="inlineStr">
+      <c r="K1380" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1379" t="inlineStr">
+      <c r="L1380" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1379" t="inlineStr">
+      <c r="M1380" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1379" t="inlineStr">
+      <c r="N1380" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
